--- a/Money-And-Investments/My Investments/personal_share_info.xlsx
+++ b/Money-And-Investments/My Investments/personal_share_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Stock Ticker</t>
   </si>
@@ -31,7 +31,13 @@
     <t>Purchase Price</t>
   </si>
   <si>
-    <t>Current Price</t>
+    <t>Average price per share</t>
+  </si>
+  <si>
+    <t>Current Price (Jan 28, 2025)</t>
+  </si>
+  <si>
+    <t>Price Reason Notes</t>
   </si>
   <si>
     <t>Total Investment</t>
@@ -61,6 +67,12 @@
     <t>Nippon India ETF Gold BeES</t>
   </si>
   <si>
+    <t>20+1+2+2</t>
+  </si>
+  <si>
+    <t>63.82 + 67.49 + 67.49 + 67.47</t>
+  </si>
+  <si>
     <t>ETF</t>
   </si>
   <si>
@@ -82,6 +94,12 @@
     <t>Tata Motors Limited</t>
   </si>
   <si>
+    <t>2 + 1 + 1</t>
+  </si>
+  <si>
+    <t>725 + 732.85 + 717.05</t>
+  </si>
+  <si>
     <t>Automobile</t>
   </si>
   <si>
@@ -92,6 +110,12 @@
   </si>
   <si>
     <t>Hatsun Agro Product Ltd (HAP)</t>
+  </si>
+  <si>
+    <t>2 + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">984.1 + 926.65 </t>
   </si>
 </sst>
 </file>
@@ -101,9 +125,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -122,23 +146,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,114 +283,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,11 +508,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,17 +565,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,198 +591,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -738,7 +762,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,18 +1117,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.8888888888889" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="35" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="16384" width="24.8888888888889" customWidth="1"/>
+    <col min="1" max="16384" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,36 +1168,48 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
         <v>45650</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>64.5524</v>
+      </c>
+      <c r="G2">
+        <v>67.58</v>
+      </c>
+      <c r="I2">
+        <v>1613.81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>63.82</v>
-      </c>
-      <c r="G2">
-        <v>1276</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>45650</v>
@@ -1176,63 +1220,81 @@
       <c r="E3">
         <v>295.4</v>
       </c>
+      <c r="F3">
+        <v>295.4</v>
+      </c>
       <c r="G3">
+        <v>260.75</v>
+      </c>
+      <c r="I3">
         <v>295.4</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <v>45650</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>725</v>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>724.975</v>
       </c>
       <c r="G4">
-        <v>1450</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
+        <v>728.45</v>
+      </c>
+      <c r="I4">
+        <v>2899.9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3">
         <v>45299</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>984.1</v>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>964.95</v>
       </c>
       <c r="G5">
-        <v>1968.2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
+        <v>941.5</v>
+      </c>
+      <c r="I5">
+        <v>2894.85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Money-And-Investments/My Investments/personal_share_info.xlsx
+++ b/Money-And-Investments/My Investments/personal_share_info.xlsx
@@ -94,10 +94,10 @@
     <t>Tata Motors Limited</t>
   </si>
   <si>
-    <t>2 + 1 + 1</t>
-  </si>
-  <si>
-    <t>725 + 732.85 + 717.05</t>
+    <t>2 + 1 + 1+ 6</t>
+  </si>
+  <si>
+    <t>725 + 732.85 + 717.05 + 691.20</t>
   </si>
   <si>
     <t>Automobile</t>
@@ -123,11 +123,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -146,24 +146,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +252,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -194,97 +277,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,19 +299,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,55 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,103 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +508,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,33 +543,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,26 +564,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,155 +585,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -762,9 +762,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1120,7 +1117,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1246,14 +1243,14 @@
       <c r="C4" s="3">
         <v>45650</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F4">
-        <v>724.975</v>
+        <v>704.71</v>
       </c>
       <c r="G4">
         <v>728.45</v>
@@ -1281,7 +1278,7 @@
       <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F5">

--- a/Money-And-Investments/My Investments/personal_share_info.xlsx
+++ b/Money-And-Investments/My Investments/personal_share_info.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+  <si>
+    <t>Bought</t>
+  </si>
   <si>
     <t>Stock Ticker</t>
   </si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>TATA Motors surpassed Maruti Suzuki in terms of sales in 4 decades on January 05, 2025.</t>
+  </si>
+  <si>
+    <t>Sold</t>
   </si>
   <si>
     <t>HAP</t>
@@ -123,13 +129,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +145,7 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,6 +153,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -156,14 +171,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,15 +185,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +210,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,23 +225,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,47 +239,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,11 +523,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,21 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,35 +594,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,154 +623,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1114,184 +1130,246 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="35" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
         <v>45650</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
         <v>64.5524</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>67.58</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>1613.81</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="N3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45650</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>295.4</v>
-      </c>
-      <c r="F3">
-        <v>295.4</v>
-      </c>
-      <c r="G3">
-        <v>260.75</v>
-      </c>
-      <c r="I3">
-        <v>295.4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45650</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>295.4</v>
+      </c>
+      <c r="F4">
+        <v>295.4</v>
+      </c>
+      <c r="G4">
+        <v>260.75</v>
+      </c>
+      <c r="I4">
+        <v>295.4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
         <v>45650</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4">
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
         <v>704.71</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>728.45</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>2899.9</v>
       </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N5" t="s">
         <v>29</v>
       </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="3:5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3">
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4">
         <v>45299</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5">
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
         <v>964.95</v>
       </c>
-      <c r="G5">
+      <c r="G11">
         <v>941.5</v>
       </c>
-      <c r="I5">
+      <c r="I11">
         <v>2894.85</v>
       </c>
-      <c r="N5" t="s">
-        <v>22</v>
+      <c r="N11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Money-And-Investments/My Investments/personal_share_info.xlsx
+++ b/Money-And-Investments/My Investments/personal_share_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Bought</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Sold</t>
   </si>
   <si>
+    <t>Sold Price</t>
+  </si>
+  <si>
     <t>HAP</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">984.1 + 926.65 </t>
+  </si>
+  <si>
+    <t>With Profit (Feb 03, 2025)</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35" defaultRowHeight="15"/>
@@ -1296,7 +1302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1342,22 +1348,25 @@
       <c r="O10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="P10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4">
         <v>45299</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>964.95</v>
@@ -1370,6 +1379,9 @@
       </c>
       <c r="N11" t="s">
         <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
